--- a/[TableLayOut]우량조.xlsx
+++ b/[TableLayOut]우량조.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woosw\OneDrive\바탕 화면\파이썬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4CFE4-5373-4067-BBCB-0F7E794AD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B7516-1AF4-44C1-862F-A83D70563844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A4B7BE68-7BAB-4548-B2D7-DD72266C224C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A4B7BE68-7BAB-4548-B2D7-DD72266C224C}"/>
   </bookViews>
   <sheets>
     <sheet name="주식정보" sheetId="5" r:id="rId1"/>
-    <sheet name="주식분석" sheetId="3" r:id="rId2"/>
-    <sheet name="주식추천" sheetId="4" r:id="rId3"/>
+    <sheet name="업종정보" sheetId="6" r:id="rId2"/>
+    <sheet name="주식분석" sheetId="3" r:id="rId3"/>
+    <sheet name="주식추천" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>STOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +210,26 @@
   </si>
   <si>
     <t>STOCK_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종별 총액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +252,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -358,7 +395,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4FF23A-3EA2-454F-8042-247C5882D23E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -691,45 +731,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -743,57 +783,57 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -864,7 +904,7 @@
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1137,6 +1177,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58D875E-7986-4240-8D38-26D4EA10ACFF}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>UPPER("stock_cd")</f>
+        <v>STOCK_CD</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF7263F-834B-46D9-A5AE-B05F50840FB6}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -1154,45 +1672,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -1206,57 +1724,57 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -1328,7 +1846,7 @@
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="3"/>
@@ -1633,17 +2151,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0D4C80-51C5-4CE4-9648-55234BB4C661}">
   <dimension ref="A1"/>
   <sheetViews>
